--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value603.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value603.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8873131687354333</v>
+        <v>1.074411153793335</v>
       </c>
       <c r="B1">
-        <v>0.8542417300224467</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>0.8029296228147181</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.922285498158976</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.217128145568797</v>
+        <v>1.154838800430298</v>
       </c>
     </row>
   </sheetData>
